--- a/matrix_normal.xlsx
+++ b/matrix_normal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\#Github\workspace\uchicago_projectlab_vegamap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A14B23-BB9C-4BBC-8857-65DEDEB96B04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6B2CF6-6B0C-4DF0-B520-D64B48F297A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="2445" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,7 +370,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +704,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,11 +742,23 @@
       <c r="A2" s="2">
         <v>0.25</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.5</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -776,6 +788,9 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="C7">
         <v>1</v>
       </c>
@@ -794,6 +809,9 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>

--- a/matrix_normal.xlsx
+++ b/matrix_normal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\#Github\workspace\uchicago_projectlab_vegamap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6B2CF6-6B0C-4DF0-B520-D64B48F297A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC43275E-C173-4201-A474-A4F40460F281}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="2445" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,7 +704,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,12 +742,6 @@
       <c r="A2" s="2">
         <v>0.25</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
